--- a/Información_Datos_FA.xlsx
+++ b/Información_Datos_FA.xlsx
@@ -5,28 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Santos\Desktop\Fiebre_amarilla\dashboard_casos_fa\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Santos\Desktop\Fiebre_amarilla\dashboard_casos_fa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4507765-4BCA-4917-811A-CB5ACC5D76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1291B9-79E3-458B-916C-FC276E6BC5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Municipio+Veredas" sheetId="4" r:id="rId2"/>
-    <sheet name="Municipios" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="64">
   <si>
     <t>MUNICIPIO</t>
   </si>
@@ -52,15 +46,6 @@
     <t>San Isidro</t>
   </si>
   <si>
-    <t>Ataco</t>
-  </si>
-  <si>
-    <t>La Ceiba</t>
-  </si>
-  <si>
-    <t>Via Ataco-Planadas</t>
-  </si>
-  <si>
     <t>Chaparral</t>
   </si>
   <si>
@@ -71,9 +56,6 @@
   </si>
   <si>
     <t>Zona Rural Via Planadas</t>
-  </si>
-  <si>
-    <t>Cascarillo</t>
   </si>
   <si>
     <t>Violetas Totumo</t>
@@ -88,16 +70,7 @@
     <t>Brisas Carbonal</t>
   </si>
   <si>
-    <t>Sinai</t>
-  </si>
-  <si>
     <t>Berlin</t>
-  </si>
-  <si>
-    <t>Las Cruces</t>
-  </si>
-  <si>
-    <t>La ensillada</t>
   </si>
   <si>
     <t>Villarica</t>
@@ -121,9 +94,6 @@
     <t>La nevada</t>
   </si>
   <si>
-    <t>La Rivera</t>
-  </si>
-  <si>
     <t>El Prodigio</t>
   </si>
   <si>
@@ -145,16 +115,7 @@
     <t>San pablo ambeima</t>
   </si>
   <si>
-    <t>El Eden</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Los Angeles</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
   </si>
   <si>
     <t>Brisas Totumo</t>
@@ -223,10 +184,34 @@
     <t>las juntas</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
+    <t>LA CEIBA</t>
   </si>
   <si>
-    <t>Cuenta de VEREDA</t>
+    <t>CASCARILLO BAJO</t>
+  </si>
+  <si>
+    <t>EL SINAI</t>
+  </si>
+  <si>
+    <t>LAS CRUCES</t>
+  </si>
+  <si>
+    <t>LA ENSILLADA</t>
+  </si>
+  <si>
+    <t>LA RIVERA</t>
+  </si>
+  <si>
+    <t>EL EDEN</t>
+  </si>
+  <si>
+    <t>BUENA VISTA</t>
+  </si>
+  <si>
+    <t>OTRO</t>
+  </si>
+  <si>
+    <t>ATACO</t>
   </si>
 </sst>
 </file>
@@ -260,12 +245,18 @@
       <name val="Aptos"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -384,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,7 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,15 +461,14 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,1244 +708,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zulyana Sanchez Ortiz" refreshedDate="45835.86198159722" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{EFF39F9B-43DC-4548-A3F6-A251C3FE7EFD}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tabla1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="MUNICIPIO" numFmtId="0">
-      <sharedItems count="13">
-        <s v="Purificación"/>
-        <s v="Cunday"/>
-        <s v="Ataco"/>
-        <s v="Chaparral"/>
-        <s v="Planadas"/>
-        <s v="Villarica"/>
-        <s v="Rioblanco"/>
-        <s v="Ortega"/>
-        <s v="Rovira"/>
-        <s v="Fresno"/>
-        <s v="Ibague"/>
-        <s v="Espinal"/>
-        <s v="San antonio"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="VEREDA" numFmtId="0">
-      <sharedItems count="40">
-        <s v="La Samaria"/>
-        <s v="San Isidro"/>
-        <s v="La Ceiba"/>
-        <s v="Via Ataco-Planadas"/>
-        <s v="Copete Delicias"/>
-        <s v="Zona Rural Via Planadas"/>
-        <s v="Cascarillo"/>
-        <s v="Mulicu Las Delicias"/>
-        <s v="Violetas Totumo"/>
-        <s v="El diviso"/>
-        <s v="San Agustin"/>
-        <s v="Brisas Carbonal"/>
-        <s v="Sinai"/>
-        <s v="Berlin"/>
-        <s v="Las Cruces"/>
-        <s v="La ensillada"/>
-        <s v="Bajo belgica"/>
-        <s v="Tuluni"/>
-        <s v="Copete"/>
-        <s v="La Siberia"/>
-        <s v="Santo Domingo"/>
-        <s v="La nevada"/>
-        <s v="La Rivera"/>
-        <s v="El Prodigio"/>
-        <s v="El relator"/>
-        <s v="Marmaja"/>
-        <s v="El triunfo"/>
-        <s v="San pablo ambeima"/>
-        <s v="El Eden"/>
-        <s v=" Los Angeles"/>
-        <s v="Buena Vista"/>
-        <s v="Brisas Totumo"/>
-        <s v="Casco Urbano"/>
-        <s v="La aguiadita"/>
-        <s v="CAV-llanitos"/>
-        <s v="Jazminia"/>
-        <s v="Barrio la delicias"/>
-        <s v="Calabozo"/>
-        <s v="llovedero"/>
-        <s v="las juntas"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="FECHA RECOLECCIÓN " numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-09T00:00:00" maxDate="2026-05-25T00:00:00"/>
-    </cacheField>
-    <cacheField name="PROVENIENTE " numFmtId="0">
-      <sharedItems count="2">
-        <s v="VIGILANCIA COMUNITARIA (EPIZOOTIAS)"/>
-        <s v="VIGILANCIA PROVENIENTE DE PROCESOS DE INCAUTACIÓN O RESCATE DE FAUNA SILVETRE"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DESCRIPCIÓN" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zulyana Sanchez Ortiz" refreshedDate="45835.865292129631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{AD9CD91E-1388-4F46-AA42-0435DC70E180}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tabla1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="MUNICIPIO" numFmtId="0">
-      <sharedItems count="13">
-        <s v="Purificación"/>
-        <s v="Cunday"/>
-        <s v="Ataco"/>
-        <s v="Chaparral"/>
-        <s v="Planadas"/>
-        <s v="Villarica"/>
-        <s v="Rioblanco"/>
-        <s v="Ortega"/>
-        <s v="Rovira"/>
-        <s v="Fresno"/>
-        <s v="Ibague"/>
-        <s v="Espinal"/>
-        <s v="San antonio"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="VEREDA" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="FECHA RECOLECCIÓN " numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-09T00:00:00" maxDate="2026-05-25T00:00:00"/>
-    </cacheField>
-    <cacheField name="PROVENIENTE " numFmtId="0">
-      <sharedItems count="2">
-        <s v="VIGILANCIA COMUNITARIA (EPIZOOTIAS)"/>
-        <s v="VIGILANCIA PROVENIENTE DE PROCESOS DE INCAUTACIÓN O RESCATE DE FAUNA SILVETRE"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DESCRIPCIÓN" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <d v="2025-02-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <d v="2025-02-23T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <d v="2025-03-30T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <d v="2025-04-02T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <d v="2025-04-02T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <d v="2025-04-06T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <d v="2025-04-07T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <d v="2025-04-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <d v="2025-04-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <d v="2025-04-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="9"/>
-    <d v="2025-04-10T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="10"/>
-    <d v="2025-04-11T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <d v="2025-04-12T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="12"/>
-    <d v="2025-04-12T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="13"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <d v="2025-04-16T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <d v="2025-04-16T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="16"/>
-    <d v="2025-04-16T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="17"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="18"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="19"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="20"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="21"/>
-    <d v="2025-04-21T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="21"/>
-    <d v="2025-04-21T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="21"/>
-    <d v="2025-04-21T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="13"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="13"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <s v="26/04/20025"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="22"/>
-    <d v="2025-04-28T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="23"/>
-    <d v="2025-05-02T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="24"/>
-    <d v="2015-05-09T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="25"/>
-    <d v="2025-05-13T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="25"/>
-    <d v="2025-05-13T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="26"/>
-    <d v="2025-05-14T00:00:00"/>
-    <x v="0"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="27"/>
-    <d v="2025-05-17T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="28"/>
-    <d v="2025-05-15T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="29"/>
-    <d v="2025-05-23T00:00:00"/>
-    <x v="0"/>
-    <s v="NO APTA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="30"/>
-    <d v="2025-05-24T00:00:00"/>
-    <x v="0"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="31"/>
-    <d v="2025-05-25T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="32"/>
-    <d v="2026-05-24T00:00:00"/>
-    <x v="1"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="33"/>
-    <d v="2025-05-25T00:00:00"/>
-    <x v="1"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="34"/>
-    <d v="2025-05-27T00:00:00"/>
-    <x v="1"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="35"/>
-    <d v="2025-06-08T00:00:00"/>
-    <x v="1"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="17"/>
-    <d v="2025-06-07T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="36"/>
-    <d v="2025-05-07T00:00:00"/>
-    <x v="1"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="37"/>
-    <d v="2025-06-06T00:00:00"/>
-    <x v="1"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="38"/>
-    <d v="2025-06-19T00:00:00"/>
-    <x v="0"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="39"/>
-    <d v="2025-06-27T00:00:00"/>
-    <x v="0"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
-  <r>
-    <x v="0"/>
-    <s v="La Samaria"/>
-    <d v="2025-02-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="San Isidro"/>
-    <d v="2025-02-23T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="La Ceiba"/>
-    <d v="2025-03-30T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Via Ataco-Planadas"/>
-    <d v="2025-04-02T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Copete Delicias"/>
-    <d v="2025-04-02T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Zona Rural Via Planadas"/>
-    <d v="2025-04-06T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Cascarillo"/>
-    <d v="2025-04-07T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Mulicu Las Delicias"/>
-    <d v="2025-04-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Violetas Totumo"/>
-    <d v="2025-04-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Violetas Totumo"/>
-    <d v="2025-04-08T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="El diviso"/>
-    <d v="2025-04-10T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="San Agustin"/>
-    <d v="2025-04-11T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Brisas Carbonal"/>
-    <d v="2025-04-12T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Sinai"/>
-    <d v="2025-04-12T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Berlin"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Las Cruces"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="La ensillada"/>
-    <d v="2025-04-16T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="La ensillada"/>
-    <d v="2025-04-16T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Bajo belgica"/>
-    <d v="2025-04-16T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Tuluni"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Copete"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="La Siberia"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Santo Domingo"/>
-    <d v="2025-04-19T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="La nevada"/>
-    <d v="2025-04-21T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="La nevada"/>
-    <d v="2025-04-21T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="La nevada"/>
-    <d v="2025-04-21T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Las Cruces"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Berlin"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Berlin"/>
-    <d v="2025-04-14T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Violetas Totumo"/>
-    <s v="26/04/20025"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="La Rivera"/>
-    <d v="2025-04-28T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="El Prodigio"/>
-    <d v="2025-05-02T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="El relator"/>
-    <d v="2015-05-09T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Marmaja"/>
-    <d v="2025-05-13T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Marmaja"/>
-    <d v="2025-05-13T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="El triunfo"/>
-    <d v="2025-05-14T00:00:00"/>
-    <x v="0"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="San pablo ambeima"/>
-    <d v="2025-05-17T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="El Eden"/>
-    <d v="2025-05-15T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v=" Los Angeles"/>
-    <d v="2025-05-23T00:00:00"/>
-    <x v="0"/>
-    <s v="NO APTA"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Buena Vista"/>
-    <d v="2025-05-24T00:00:00"/>
-    <x v="0"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Brisas Totumo"/>
-    <d v="2025-05-25T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Casco Urbano"/>
-    <d v="2026-05-24T00:00:00"/>
-    <x v="1"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="La aguiadita"/>
-    <d v="2025-05-25T00:00:00"/>
-    <x v="1"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="CAV-llanitos"/>
-    <d v="2025-05-27T00:00:00"/>
-    <x v="1"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Jazminia"/>
-    <d v="2025-06-08T00:00:00"/>
-    <x v="1"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Tuluni"/>
-    <d v="2025-06-07T00:00:00"/>
-    <x v="0"/>
-    <s v="POSITIVO FA"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Barrio la delicias"/>
-    <d v="2025-05-07T00:00:00"/>
-    <x v="1"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Calabozo"/>
-    <d v="2025-06-06T00:00:00"/>
-    <x v="1"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="llovedero"/>
-    <d v="2025-06-19T00:00:00"/>
-    <x v="0"/>
-    <s v="NEGATIVO FA"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="las juntas"/>
-    <d v="2025-06-27T00:00:00"/>
-    <x v="0"/>
-    <s v="EN ESTUDIO"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B36B7B5B-D912-4945-B7C8-DEB900875C39}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="41">
-        <item x="29"/>
-        <item x="16"/>
-        <item x="36"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="37"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="28"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="35"/>
-        <item x="33"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="25"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="58">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="35"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de VEREDA" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13EE9B7B-4A2D-49D4-A047-2A290AF96C53}" name="TablaDinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de VEREDA" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:E51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E51" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2026" dateTimeGrouping="year"/>
+        <filter val="Ataco"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2172,7 +929,7 @@
   <dimension ref="A1:E999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -2186,870 +943,870 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" hidden="1" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45696</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45711</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45746</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45749</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45749</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>45753</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45754</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45755</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>45755</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45755</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45757</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45758</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45759</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8">
+        <v>45759</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>45761</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45761</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45763</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="8">
+        <v>45763</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <v>45763</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45766</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45766</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45766</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45766</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8">
+        <v>45768</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8">
+        <v>45768</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45768</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45761</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8">
+        <v>45761</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="8">
+        <v>45761</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="8">
+        <v>45773</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45775</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45779</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8">
+        <v>45786</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="11">
+        <v>45790</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="11">
+        <v>45790</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="12">
+        <v>45791</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="16">
+        <v>45794</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A39" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="20">
+        <v>45792</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="20">
+        <v>45800</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="20">
+        <v>45801</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="20">
+        <v>45802</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="16">
+        <v>45801</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="16">
+        <v>45802</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="16">
+        <v>45804</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="26">
+        <v>45816</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="26">
+        <v>45815</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="26">
+        <v>45784</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45696</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C49" s="26">
+        <v>45814</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45711</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45746</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45749</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45749</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9">
-        <v>45753</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9">
-        <v>45754</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9">
-        <v>45755</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
-        <v>45755</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9">
-        <v>45755</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45757</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45758</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9">
-        <v>45759</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9">
-        <v>45759</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45761</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
-        <v>45761</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
-        <v>45763</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45763</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9">
-        <v>45763</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="9">
-        <v>45766</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9">
-        <v>45766</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="9">
-        <v>45766</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9">
-        <v>45766</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="9">
-        <v>45768</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45768</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45768</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="9">
-        <v>45761</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9">
-        <v>45761</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="9">
-        <v>45761</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="9">
-        <v>45773</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9">
-        <v>45775</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9">
-        <v>45779</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="9">
-        <v>45786</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="C50" s="26">
+        <v>45827</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" hidden="1" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="26">
+        <v>45835</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="C35" s="12">
-        <v>45790</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="12">
-        <v>45790</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="13">
-        <v>45791</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="17">
-        <v>45794</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A39" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="21">
-        <v>45792</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A40" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="21">
-        <v>45800</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="21">
-        <v>45801</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="21">
-        <v>45802</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A43" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="17">
-        <v>45801</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A44" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="17">
-        <v>45802</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A45" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="17">
-        <v>45804</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A46" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="27">
-        <v>45816</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A47" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="27">
-        <v>45815</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A48" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="27">
-        <v>45784</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="27">
-        <v>45814</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A50" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="27">
-        <v>45827</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" hidden="1" customHeight="1">
-      <c r="A51" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="27">
-        <v>45835</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1">
@@ -7799,684 +6556,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8C32AF-D7BA-4745-A4D6-7F0F974247B9}">
-  <dimension ref="A3:B61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="78.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="81.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="30">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BFAB68-774E-4E60-BD40-F3F1CD7B152E}">
-  <dimension ref="A3:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="78.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="30">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>